--- a/設計書/基本設計/基本設計書.xlsx
+++ b/設計書/基本設計/基本設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="556" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38324FA-4C7D-4E04-A231-D9B9A317DB66}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817975C-385F-4219-97E1-0B6002872C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -241,10 +241,6 @@
     <rPh sb="0" eb="2">
       <t>ワカサ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アカウント管理付きブログシステム</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -523,6 +519,10 @@
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>共有ToDoListシステム</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1056,7 +1056,7 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>2025/10/7</a:t>
+              <a:t>2025/10/12</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -9186,10 +9186,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -9490,7 +9486,7 @@
   <dimension ref="A1:IV43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F8:Q10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -10005,7 +10001,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
       <c r="F9" s="48" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
@@ -10576,7 +10572,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="55">
-        <v>45937</v>
+        <v>45942</v>
       </c>
       <c r="G26" s="56"/>
       <c r="H26" s="56"/>
@@ -11306,7 +11302,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -11314,7 +11310,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -11339,7 +11335,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -12721,7 +12717,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -12757,7 +12753,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -12984,7 +12980,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -12992,7 +12988,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -13017,7 +13013,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -14433,7 +14429,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -14660,7 +14656,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -14668,7 +14664,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -14693,7 +14689,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -16075,7 +16071,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -16111,7 +16107,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -16338,7 +16334,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -16346,7 +16342,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -16371,7 +16367,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -16680,7 +16676,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -16688,7 +16684,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -16713,7 +16709,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -17022,7 +17018,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17030,7 +17026,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17055,7 +17051,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -17364,7 +17360,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17372,7 +17368,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17397,7 +17393,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -17706,7 +17702,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17714,7 +17710,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17739,7 +17735,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -18048,7 +18044,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -18056,7 +18052,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18081,7 +18077,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -18390,7 +18386,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -18398,7 +18394,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18423,7 +18419,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -18732,7 +18728,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -18740,7 +18736,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18765,7 +18761,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -20147,7 +20143,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -20408,7 +20404,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -20416,7 +20412,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -20441,7 +20437,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -20750,7 +20746,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -20758,7 +20754,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -20783,7 +20779,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -21092,7 +21088,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -21100,7 +21096,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21125,7 +21121,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -21434,7 +21430,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -21442,7 +21438,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21467,7 +21463,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -21776,7 +21772,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -21784,7 +21780,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21809,7 +21805,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -22118,7 +22114,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -22126,7 +22122,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -22151,7 +22147,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -23533,7 +23529,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -23570,7 +23566,7 @@
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -23606,7 +23602,7 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -23798,7 +23794,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -23806,7 +23802,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -23831,7 +23827,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -25213,7 +25209,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -25249,7 +25245,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -25286,7 +25282,7 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -25323,7 +25319,7 @@
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
       <c r="A42" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -25480,7 +25476,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -25488,7 +25484,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -25513,7 +25509,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -26895,7 +26891,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -26931,7 +26927,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -27158,7 +27154,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -27166,7 +27162,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -27191,7 +27187,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -28573,7 +28569,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -28609,7 +28605,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -28836,7 +28832,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -28844,7 +28840,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -28869,7 +28865,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -30251,7 +30247,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -30287,7 +30283,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -30514,7 +30510,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -30522,7 +30518,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -30547,7 +30543,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -31929,7 +31925,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -31965,7 +31961,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -32002,7 +31998,7 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -32194,7 +32190,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -32202,7 +32198,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -32227,7 +32223,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -33609,7 +33605,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -33645,7 +33641,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -33682,7 +33678,7 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>

--- a/設計書/基本設計/基本設計書.xlsx
+++ b/設計書/基本設計/基本設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817975C-385F-4219-97E1-0B6002872C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACB44DA-8BDD-4079-BAA5-697AFAF95DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="IO関連図（登録画面）" sheetId="13" r:id="rId3"/>
     <sheet name="IO関連図（登録確認画面）" sheetId="29" r:id="rId4"/>
     <sheet name="IO関連図（登録完了画面）" sheetId="33" r:id="rId5"/>
-    <sheet name="IO関連図（アカウント一覧画面）" sheetId="34" r:id="rId6"/>
-    <sheet name="IO関連図（アカウント更新画面）" sheetId="36" r:id="rId7"/>
-    <sheet name="IO関連図（アカウント更新確認画面）" sheetId="37" r:id="rId8"/>
+    <sheet name="IO関連図（マイページ画面）" sheetId="34" r:id="rId6"/>
+    <sheet name="IO関連図（アカウント変更画面）" sheetId="36" r:id="rId7"/>
+    <sheet name="IO関連図（アカウント変更確認画面）" sheetId="37" r:id="rId8"/>
     <sheet name="IO関連図（アカウント更新完了画面）" sheetId="38" r:id="rId9"/>
     <sheet name="IO関連図（アカウント削除画面）" sheetId="42" r:id="rId10"/>
     <sheet name="IO関連図（アカウント削除確認画面）" sheetId="43" r:id="rId11"/>
@@ -30,50 +30,50 @@
     <sheet name="画面レイアウト（登録画面）" sheetId="30" r:id="rId15"/>
     <sheet name="画面レイアウト（登録確認画面）" sheetId="31" r:id="rId16"/>
     <sheet name="画面レイアウト（登録完了画面）" sheetId="32" r:id="rId17"/>
-    <sheet name="画面レイアウト（アカウント検索・一覧）" sheetId="35" r:id="rId18"/>
-    <sheet name="画面レイアウト（更新画面）" sheetId="39" r:id="rId19"/>
-    <sheet name="画面レイアウト（更新確認画面）" sheetId="40" r:id="rId20"/>
-    <sheet name="画面レイアウト（更新完了画面）" sheetId="41" r:id="rId21"/>
+    <sheet name="画面レイアウト（マイページ）" sheetId="35" r:id="rId18"/>
+    <sheet name="画面レイアウト（変更画面）" sheetId="39" r:id="rId19"/>
+    <sheet name="画面レイアウト（変更確認画面）" sheetId="40" r:id="rId20"/>
+    <sheet name="画面レイアウト（変更完了画面）" sheetId="41" r:id="rId21"/>
     <sheet name="画面レイアウト（削除画面）" sheetId="45" r:id="rId22"/>
     <sheet name="画面レイアウト（削除確認画面）" sheetId="46" r:id="rId23"/>
     <sheet name="画面レイアウト（削除完了画面）" sheetId="47" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'IO関連図（アカウント一覧画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'IO関連図（アカウント更新画面）'!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'IO関連図（アカウント更新確認画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'IO関連図（アカウント更新完了画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'IO関連図（アカウント削除画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'IO関連図（アカウント削除確認画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'IO関連図（アカウント削除完了画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'IO関連図（アカウント変更画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'IO関連図（アカウント変更確認画面）'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'IO関連図（マイページ画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'IO関連図（ログイン画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'IO関連図（登録画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'IO関連図（登録確認画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'IO関連図（登録完了画面）'!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'IO関連図（アカウント一覧画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'IO関連図（アカウント更新画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'IO関連図（アカウント更新確認画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'IO関連図（アカウント更新完了画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'IO関連図（アカウント削除画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'IO関連図（アカウント削除確認画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'IO関連図（アカウント削除完了画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'IO関連図（アカウント変更画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'IO関連図（アカウント変更確認画面）'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'IO関連図（マイページ画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'IO関連図（ログイン画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'IO関連図（登録画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'IO関連図（登録確認画面）'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'IO関連図（登録完了画面）'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="17">'画面レイアウト（アカウント検索・一覧）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="13">'画面レイアウト（ホーム画面）'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="17">'画面レイアウト（マイページ）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'画面レイアウト（ログイン画面）'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="18">'画面レイアウト（更新画面）'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="19">'画面レイアウト（更新確認画面）'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="20">'画面レイアウト（更新完了画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="21">'画面レイアウト（削除画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="22">'画面レイアウト（削除確認画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="23">'画面レイアウト（削除完了画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="14">'画面レイアウト（登録画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="15">'画面レイアウト（登録確認画面）'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="16">'画面レイアウト（登録完了画面）'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="18">'画面レイアウト（変更画面）'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="19">'画面レイアウト（変更確認画面）'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="20">'画面レイアウト（変更完了画面）'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="45">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -244,16 +244,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウント管理付きブログシステム</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「確認する」ボタンを押すと登録確認画面へ移行。確認画面から「前へ戻る」ボタンで登録画面に入力内容保持したまま戻ってくる。</t>
     <rPh sb="10" eb="11">
       <t>オ</t>
@@ -330,41 +320,6 @@
   </si>
   <si>
     <t>regist_complete</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>検索条件によって表示する内容変わる。未入力・未選択時は全件表示。</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクジョウケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミセンタク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゼンケン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -454,13 +409,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>登録エラー時赤字表示。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>パスワードハッシュ化しDB登録</t>
     <rPh sb="9" eb="10">
       <t>カ</t>
@@ -475,34 +423,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>パスワードは●で伏せる。</t>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>delete_confirm</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>delete_complete</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>権限管理者か確認する</t>
-  </si>
-  <si>
-    <t>権限管理者か確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -523,6 +448,18 @@
   </si>
   <si>
     <t>共有ToDoListシステム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TOPページ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Mypage</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メインページ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1657,17 +1594,17 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>user_data</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1675,7 +1612,7 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2738,7 +2675,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>user_data</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2812,689 +2749,6 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA28DE0C-6594-1449-4F24-DB223475F7CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="33329" t="27225" r="31311" b="5634"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="552450"/>
-          <a:ext cx="6467475" cy="6600826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00ED79B6-9AB0-7039-79EF-D826BCCE0F7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="12208" r="13695" b="10768"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1647825" y="533400"/>
-          <a:ext cx="7210425" cy="7572375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>125196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA800851-6F52-B6F2-3E71-1EBB3631C813}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34110" t="27031" r="31259" b="5038"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2105025" y="571500"/>
-          <a:ext cx="6334125" cy="6678396"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CCC9E5-60DE-12BA-5AB9-31FC7425F669}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34266" t="21024" r="30843" b="12609"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2466976" y="542925"/>
-          <a:ext cx="6381750" cy="6524626"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C760FA18-2790-C078-3AF6-16444BE6E3EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34266" t="24415" r="31520" b="12028"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2276475" y="523875"/>
-          <a:ext cx="6257925" cy="6248400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5192286-A612-EA1E-2097-1359BED20464}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25361" t="37398" r="31364" b="1259"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="609600"/>
-          <a:ext cx="7915275" cy="6030696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA5B0F9-8911-0D74-F2A7-8B2831C8A45F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="27860" t="45149" r="33863" b="20263"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781175" y="2457450"/>
-          <a:ext cx="7000875" cy="3400425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8AE8D1-DCEA-DD56-C9D3-49AC25B4B3E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5981700" y="1743075"/>
-          <a:ext cx="2571750" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>○選択してください　〇男　〇女</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEB36BA-70FA-4E04-A87A-069AB26ADBF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1895474"/>
-          <a:ext cx="1190625" cy="123826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>選択してください　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="500"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B965F2-B898-58B3-8628-CBD5B60FD322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34474" t="27806" r="31207" b="3889"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2495550" y="552450"/>
-          <a:ext cx="6276975" cy="6715126"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B64F75D-9795-3415-E8EA-FB98F70240D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143499" y="3581401"/>
-          <a:ext cx="2305051" cy="276224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>パスワードは変更する場合のみ入力してください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4040,7 +3294,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>user_data</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4351,286 +3605,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5674B2E-6710-57DC-155B-5A3B2240B115}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34110" t="21993" r="31624" b="12319"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="523874"/>
-          <a:ext cx="6267450" cy="6457951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F40797-31F8-4936-66D0-6EE0547DD7DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34422" t="25287" r="32874" b="11059"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="561975"/>
-          <a:ext cx="5981700" cy="6257926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C520BC0C-1497-7A17-B7AE-3251EEA85F56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34891" t="27322" r="31364" b="7183"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343151" y="600075"/>
-          <a:ext cx="6172200" cy="6438900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD17DF6-78FA-5918-22F5-51CB5CAE73BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34630" t="30809" r="31416" b="5536"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2505075" y="581025"/>
-          <a:ext cx="6210300" cy="6257925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6639F396-AEB4-DD46-F74E-A7C833D5ED11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="34422" t="34685" r="30947" b="2048"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2390775" y="666750"/>
-          <a:ext cx="6334125" cy="6219825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4895,8 +3869,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>69851</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4914,7 +3888,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3473450" y="2085976"/>
-          <a:ext cx="4089400" cy="2679700"/>
+          <a:ext cx="4089400" cy="1476374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4998,7 +3972,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  ・姓（</a:t>
+            <a:t>  ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表示名（ニックネーム）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
@@ -5007,73 +3999,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>family_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
+            <a:t>user_name</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
@@ -5163,85 +4089,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  ・性別（</a:t>
+            <a:t>  </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　・アカウント権限</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -5311,15 +4160,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5336,7 +4185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4552950" y="5200650"/>
+          <a:off x="4505325" y="4210050"/>
           <a:ext cx="1638299" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -5381,16 +4230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5407,7 +4256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="5219700" y="4857749"/>
+          <a:off x="5400675" y="3705224"/>
           <a:ext cx="0" cy="257176"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6499,7 +5348,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>user_data</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6858,7 +5707,27 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント検索</a:t>
+            <a:t>投稿検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>削除</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6869,16 +5738,6 @@
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>条件入力</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -7063,7 +5922,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント一覧</a:t>
+            <a:t>投稿内容表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7134,7 +5993,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>post_data</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7208,6 +6067,147 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCF2982-5469-412B-B843-DEDCE18995D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5972175" y="3076575"/>
+          <a:ext cx="533400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642C2C49-7C3C-4888-AA10-CCF18617DD31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6943725" y="2733675"/>
+          <a:ext cx="2343150" cy="885824"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>post_data</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -7547,7 +6547,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント更新</a:t>
+            <a:t>アカウント変更</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -7558,7 +6558,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0"/>
+          <a:pPr rtl="0"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
               <a:effectLst/>
@@ -7577,43 +6577,25 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・姓（</a:t>
+            <a:t>・表示名（ニックネーム）（</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>family_name</a:t>
+            <a:t>user_name</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）  ・名（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>last_name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7621,47 +6603,14 @@
             </a:rPr>
             <a:t>）</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="700">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0"/>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  ・カナ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>family_name_kana / last_name_kana</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="700">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7670,7 +6619,7 @@
             <a:t>  ・メールアドレス（</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7679,58 +6628,7 @@
             <a:t>mail</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）  </a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="700">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  ・性別（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>）　・住所（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>prefecture/address_1/address_2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -7738,22 +6636,40 @@
             </a:rPr>
             <a:t>）</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="700">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0"/>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="700" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　・アカウント権限</a:t>
+            <a:t>  ・パスワード（</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="700">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -8019,7 +6935,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>user_data</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8968,7 +7884,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>アカウント更新完了</a:t>
+            <a:t>アカウント変更完了</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9093,15 +8009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9118,7 +8034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7038975" y="2724150"/>
+          <a:off x="7067550" y="2733675"/>
           <a:ext cx="1743075" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -9154,7 +8070,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>account_data</a:t>
+            <a:t>user_data</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9485,7 +8401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -10001,7 +8917,7 @@
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
       <c r="F9" s="48" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
@@ -11208,7 +10124,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -11302,7 +10218,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -11310,7 +10226,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -11335,7 +10251,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -12716,9 +11632,7 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -12752,9 +11666,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -12886,7 +11798,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -12980,7 +11892,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -12988,7 +11900,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -13013,7 +11925,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -14428,9 +13340,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -14562,7 +13472,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -14656,7 +13566,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -14664,7 +13574,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -14689,7 +13599,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -16071,7 +14981,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -16106,9 +15016,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -16240,7 +15148,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16334,7 +15242,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -16342,7 +15250,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -16367,7 +15275,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -16573,7 +15481,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16582,7 +15489,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -16676,7 +15583,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -16684,7 +15591,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -16709,7 +15616,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -16915,7 +15822,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16924,7 +15830,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17018,7 +15924,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17026,7 +15932,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17051,7 +15957,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -17257,7 +16163,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17266,7 +16171,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17360,7 +16265,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17368,7 +16273,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17393,7 +16298,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -17599,7 +16504,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17608,7 +16512,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17702,7 +16606,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17710,7 +16614,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -17735,7 +16639,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -17941,7 +16845,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17950,7 +16853,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13:AG13"/>
+      <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -18044,7 +16947,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -18052,7 +16955,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18077,7 +16980,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -18283,7 +17186,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18292,7 +17194,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -18386,7 +17288,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -18394,7 +17296,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18419,7 +17321,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -18625,7 +17527,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18634,7 +17535,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -18728,7 +17629,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -18736,7 +17637,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -18761,7 +17662,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -20142,9 +19043,7 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -20310,7 +19209,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20404,7 +19303,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -20412,7 +19311,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -20437,7 +19336,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -20643,7 +19542,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20746,7 +19644,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -20754,7 +19652,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -20779,7 +19677,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -20985,7 +19883,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20993,8 +19890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0934C29C-3CED-4FF0-B708-6DDBC94E059D}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:AC3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -21088,7 +19985,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -21096,7 +19993,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21121,7 +20018,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -21327,7 +20224,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21335,8 +20231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB41137-33AE-4D44-8FB3-837F40E5DD28}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -21430,7 +20326,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -21438,7 +20334,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21463,7 +20359,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -21669,7 +20565,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21677,8 +20572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D721FA-BF20-437B-82EA-70E9376DA5F5}">
   <dimension ref="A1:FU4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -21772,7 +20667,7 @@
     </row>
     <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -21780,7 +20675,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -21805,7 +20700,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="67"/>
       <c r="AF3" s="66" t="s">
@@ -22011,7 +20906,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2005 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22020,7 +20914,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -22114,7 +21008,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -22122,7 +21016,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -22147,7 +21041,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -23529,7 +22423,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -23566,7 +22460,7 @@
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -23601,9 +22495,7 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -23699,7 +22591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99553CC-A55A-4B73-8EE6-040A3D99201E}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -23794,7 +22686,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -23802,7 +22694,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -23827,7 +22719,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -25209,7 +24101,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -25245,7 +24137,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -25282,7 +24174,7 @@
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -25318,9 +24210,7 @@
       <c r="AG41" s="18"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="27" t="s">
-        <v>45</v>
-      </c>
+      <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -25382,7 +24272,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -25476,7 +24366,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -25484,7 +24374,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -25509,7 +24399,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -26891,7 +25781,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -26926,9 +25816,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -27060,7 +25948,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -27154,7 +26042,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -27162,7 +26050,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -27187,7 +26075,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -28568,9 +27456,7 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -28604,9 +27490,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -28832,7 +27716,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -28840,7 +27724,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -28865,7 +27749,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -30247,7 +29131,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -30283,7 +29167,7 @@
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -30416,7 +29300,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -30510,7 +29394,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -30518,7 +29402,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -30543,7 +29427,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -31925,7 +30809,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -31960,9 +30844,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -31997,9 +30879,7 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -32096,7 +30976,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -32190,7 +31070,7 @@
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="58" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -32198,7 +31078,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="60"/>
       <c r="G3" s="61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
@@ -32223,7 +31103,7 @@
       <c r="AB3" s="62"/>
       <c r="AC3" s="63"/>
       <c r="AD3" s="61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="63"/>
       <c r="AF3" s="61" t="s">
@@ -33604,9 +32484,7 @@
       <c r="A39" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -33640,9 +32518,7 @@
       <c r="AG39" s="18"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="16"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -33677,9 +32553,7 @@
       <c r="AG40" s="18"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A41" s="16"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
